--- a/progress_log.xlsx
+++ b/progress_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Day</t>
   </si>
@@ -34,10 +34,16 @@
     <t>GitHub Link</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>keyLearning</t>
   </si>
   <si>
     <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>Python Refresher</t>
   </si>
   <si>
     <t/>
@@ -104,19 +110,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -423,19 +432,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -457,134 +467,155 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>8</v>
+      <c r="A13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/progress_log.xlsx
+++ b/progress_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Python Refresher</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -54,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +63,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -83,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,25 +109,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -438,185 +457,167 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
